--- a/EditProject/Design/Stage/EnemyBullet.xlsx
+++ b/EditProject/Design/Stage/EnemyBullet.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="7860" windowWidth="25600" windowHeight="19100" tabRatio="500"/>
+    <workbookView xWindow="9140" yWindow="3520" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,54 +19,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>超军 石</author>
-  </authors>
-  <commentList>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>超军 石:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-子弹的伤害
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effectEx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,54 +48,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>效果1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmpty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,65 +68,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code(VARCHAR(10))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caterory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caterory(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harm(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectEx(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectStr(VARCHAR(50))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmpty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0003</t>
+    <t>所用图集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addKeyToLuaTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,21 +155,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -587,209 +510,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1"/>
+    <row r="5" spans="1:8" hidden="1"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+    <row r="2" spans="1:1">
+      <c r="A2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
